--- a/lowe/edd/data/LAHWS.xlsx
+++ b/lowe/edd/data/LAHWS.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13950" windowHeight="6360"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1124,14 +1124,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:JH22"/>
+  <dimension ref="A1:JI22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.140625" customWidth="1"/>
     <col min="4" max="4" width="29" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.5703125" bestFit="1" customWidth="1"/>
@@ -1141,12 +1141,12 @@
     <col min="9" max="114" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
-        <v>44456.697581018518</v>
+        <v>44491.610081018516</v>
       </c>
     </row>
-    <row r="2" spans="1:268" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:269" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1156,14 +1156,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
     </row>
-    <row r="4" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1171,12 +1171,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:269" x14ac:dyDescent="0.2">
       <c r="G5" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>6</v>
       </c>
@@ -1189,7 +1189,7 @@
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
     </row>
-    <row r="8" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>7</v>
       </c>
@@ -1991,11 +1991,14 @@
       <c r="JG8" s="8">
         <v>44378</v>
       </c>
-      <c r="JH8" s="9">
+      <c r="JH8" s="8">
         <v>44409</v>
       </c>
+      <c r="JI8" s="9">
+        <v>44440</v>
+      </c>
     </row>
-    <row r="9" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>1</v>
       </c>
@@ -2796,10 +2799,13 @@
         <v>5107700</v>
       </c>
       <c r="JH9" s="11">
-        <v>5099000</v>
+        <v>5098800</v>
+      </c>
+      <c r="JI9" s="11">
+        <v>5086000</v>
       </c>
     </row>
-    <row r="10" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>2</v>
       </c>
@@ -3600,10 +3606,13 @@
         <v>4578100</v>
       </c>
       <c r="JH10" s="11">
-        <v>4581900</v>
+        <v>4581800</v>
+      </c>
+      <c r="JI10" s="11">
+        <v>4585200</v>
       </c>
     </row>
-    <row r="11" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>3</v>
       </c>
@@ -4406,8 +4415,11 @@
       <c r="JH11" s="11">
         <v>517000</v>
       </c>
+      <c r="JI11" s="11">
+        <v>500800</v>
+      </c>
     </row>
-    <row r="12" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>4</v>
       </c>
@@ -5210,8 +5222,11 @@
       <c r="JH12" s="12">
         <v>0.10100000000000001</v>
       </c>
+      <c r="JI12" s="12">
+        <v>9.8000000000000004E-2</v>
+      </c>
     </row>
-    <row r="13" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>10</v>
       </c>
@@ -6012,10 +6027,13 @@
         <v>4212200</v>
       </c>
       <c r="JH13" s="11">
-        <v>4290300</v>
+        <v>4289200</v>
+      </c>
+      <c r="JI13" s="11">
+        <v>4270800</v>
       </c>
     </row>
-    <row r="15" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A15" s="15" t="s">
         <v>27</v>
       </c>
@@ -6028,7 +6046,7 @@
       <c r="H15" s="17"/>
       <c r="I15" s="16"/>
     </row>
-    <row r="16" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A16" s="13" t="s">
         <v>15</v>
       </c>

--- a/lowe/edd/data/LAHWS.xlsx
+++ b/lowe/edd/data/LAHWS.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\LMIDATA AUTOCES\Published Data NAICS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\LMIDATA AUTOCES\Published Data NAICS\Jenny\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13950" windowHeight="6360"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1124,7 +1124,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:JI22"/>
+  <dimension ref="A1:JJ22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1141,12 +1141,12 @@
     <col min="9" max="114" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
-        <v>44491.610081018516</v>
+        <v>44519.49428240741</v>
       </c>
     </row>
-    <row r="2" spans="1:269" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:270" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1156,14 +1156,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
     </row>
-    <row r="4" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1171,12 +1171,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:270" x14ac:dyDescent="0.2">
       <c r="G5" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>6</v>
       </c>
@@ -1189,7 +1189,7 @@
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
     </row>
-    <row r="8" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>7</v>
       </c>
@@ -1994,11 +1994,14 @@
       <c r="JH8" s="8">
         <v>44409</v>
       </c>
-      <c r="JI8" s="9">
+      <c r="JI8" s="8">
         <v>44440</v>
       </c>
+      <c r="JJ8" s="9">
+        <v>44470</v>
+      </c>
     </row>
-    <row r="9" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>1</v>
       </c>
@@ -2802,10 +2805,13 @@
         <v>5098800</v>
       </c>
       <c r="JI9" s="11">
-        <v>5086000</v>
+        <v>5094100</v>
+      </c>
+      <c r="JJ9" s="11">
+        <v>5079200</v>
       </c>
     </row>
-    <row r="10" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>2</v>
       </c>
@@ -3609,10 +3615,13 @@
         <v>4581800</v>
       </c>
       <c r="JI10" s="11">
-        <v>4585200</v>
+        <v>4588000</v>
+      </c>
+      <c r="JJ10" s="11">
+        <v>4602000</v>
       </c>
     </row>
-    <row r="11" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>3</v>
       </c>
@@ -4416,10 +4425,13 @@
         <v>517000</v>
       </c>
       <c r="JI11" s="11">
-        <v>500800</v>
+        <v>506200</v>
+      </c>
+      <c r="JJ11" s="11">
+        <v>477300</v>
       </c>
     </row>
-    <row r="12" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>4</v>
       </c>
@@ -5223,10 +5235,13 @@
         <v>0.10100000000000001</v>
       </c>
       <c r="JI12" s="12">
-        <v>9.8000000000000004E-2</v>
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="JJ12" s="12">
+        <v>9.4E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>10</v>
       </c>
@@ -6030,10 +6045,13 @@
         <v>4289200</v>
       </c>
       <c r="JI13" s="11">
-        <v>4270800</v>
+        <v>4265900</v>
+      </c>
+      <c r="JJ13" s="11">
+        <v>4281300</v>
       </c>
     </row>
-    <row r="15" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A15" s="15" t="s">
         <v>27</v>
       </c>
@@ -6046,7 +6064,7 @@
       <c r="H15" s="17"/>
       <c r="I15" s="16"/>
     </row>
-    <row r="16" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A16" s="13" t="s">
         <v>15</v>
       </c>

--- a/lowe/edd/data/LAHWS.xlsx
+++ b/lowe/edd/data/LAHWS.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\LMIDATA AUTOCES\Published Data NAICS\Jenny\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\LMIDATA AUTOCES\Published Data NAICS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1124,7 +1124,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:JJ22"/>
+  <dimension ref="A1:JL22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1141,12 +1141,12 @@
     <col min="9" max="114" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
-        <v>44519.49428240741</v>
+        <v>44582.472731481481</v>
       </c>
     </row>
-    <row r="2" spans="1:270" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:272" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1156,14 +1156,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
     </row>
-    <row r="4" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1171,12 +1171,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:272" x14ac:dyDescent="0.2">
       <c r="G5" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>6</v>
       </c>
@@ -1189,7 +1189,7 @@
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
     </row>
-    <row r="8" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>7</v>
       </c>
@@ -1997,11 +1997,17 @@
       <c r="JI8" s="8">
         <v>44440</v>
       </c>
-      <c r="JJ8" s="9">
+      <c r="JJ8" s="8">
         <v>44470</v>
       </c>
+      <c r="JK8" s="8">
+        <v>44501</v>
+      </c>
+      <c r="JL8" s="9">
+        <v>44531</v>
+      </c>
     </row>
-    <row r="9" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>1</v>
       </c>
@@ -2808,10 +2814,16 @@
         <v>5094100</v>
       </c>
       <c r="JJ9" s="11">
-        <v>5079200</v>
+        <v>5080000</v>
+      </c>
+      <c r="JK9" s="11">
+        <v>5073800</v>
+      </c>
+      <c r="JL9" s="11">
+        <v>5063900</v>
       </c>
     </row>
-    <row r="10" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>2</v>
       </c>
@@ -3618,10 +3630,16 @@
         <v>4588000</v>
       </c>
       <c r="JJ10" s="11">
-        <v>4602000</v>
+        <v>4602800</v>
+      </c>
+      <c r="JK10" s="11">
+        <v>4620000</v>
+      </c>
+      <c r="JL10" s="11">
+        <v>4641100</v>
       </c>
     </row>
-    <row r="11" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>3</v>
       </c>
@@ -4430,8 +4448,14 @@
       <c r="JJ11" s="11">
         <v>477300</v>
       </c>
+      <c r="JK11" s="11">
+        <v>453800</v>
+      </c>
+      <c r="JL11" s="11">
+        <v>422800</v>
+      </c>
     </row>
-    <row r="12" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>4</v>
       </c>
@@ -5240,8 +5264,14 @@
       <c r="JJ12" s="12">
         <v>9.4E-2</v>
       </c>
+      <c r="JK12" s="12">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="JL12" s="12">
+        <v>8.4000000000000005E-2</v>
+      </c>
     </row>
-    <row r="13" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>10</v>
       </c>
@@ -6048,10 +6078,16 @@
         <v>4265900</v>
       </c>
       <c r="JJ13" s="11">
-        <v>4281300</v>
+        <v>4290500</v>
+      </c>
+      <c r="JK13" s="11">
+        <v>4316000</v>
+      </c>
+      <c r="JL13" s="11">
+        <v>4343900</v>
       </c>
     </row>
-    <row r="15" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A15" s="15" t="s">
         <v>27</v>
       </c>
@@ -6064,7 +6100,7 @@
       <c r="H15" s="17"/>
       <c r="I15" s="16"/>
     </row>
-    <row r="16" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A16" s="13" t="s">
         <v>15</v>
       </c>
